--- a/scene_cat_exp_2023.2.2_english/input_files/57_scenecat_categorization_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/57_scenecat_categorization_living_rooms_2.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_die1d.png</t>
+          <t>stimuli/img_j4ttn.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>75.42857142857143</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="N2">
-        <v>53.30952380952381</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="O2">
-        <v>64.36904761904762</v>
+        <v>12.02380952380952</v>
       </c>
       <c r="P2">
         <v>42</v>
       </c>
       <c r="Q2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>326</v>
+        <v>83</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_di49w.png</t>
+          <t>stimuli/img_7caxh.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>73.03125</v>
+        <v>83.38095238095238</v>
       </c>
       <c r="N3">
-        <v>52.25</v>
+        <v>64.26190476190476</v>
       </c>
       <c r="O3">
-        <v>62.640625</v>
+        <v>73.82142857142857</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>327</v>
+        <v>84</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -666,38 +666,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_x9ml4.png</t>
+          <t>stimuli/img_lgyo6.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>58.71428571428572</v>
+        <v>54.68421052631579</v>
       </c>
       <c r="N4">
-        <v>38.46428571428572</v>
+        <v>27.18421052631579</v>
       </c>
       <c r="O4">
-        <v>48.58928571428572</v>
+        <v>40.93421052631579</v>
       </c>
       <c r="P4">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>328</v>
+        <v>85</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -728,50 +728,50 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_j73b6.png</t>
+          <t>stimuli/img_91csq.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>21.5609756097561</v>
+        <v>50.44736842105263</v>
       </c>
       <c r="N5">
-        <v>19.90243902439024</v>
+        <v>28.34210526315789</v>
       </c>
       <c r="O5">
-        <v>20.73170731707317</v>
+        <v>39.39473684210526</v>
       </c>
       <c r="P5">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5">
         <v>2</v>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>329</v>
+        <v>86</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -805,53 +805,53 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_z10c7.png</t>
+          <t>stimuli/img_pdzf1.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>63.45945945945946</v>
+        <v>86.23913043478261</v>
       </c>
       <c r="N6">
-        <v>37.21621621621622</v>
+        <v>67.17391304347827</v>
       </c>
       <c r="O6">
-        <v>50.33783783783784</v>
+        <v>76.70652173913044</v>
       </c>
       <c r="P6">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -897,38 +897,38 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_vg73h.png</t>
+          <t>stimuli/img_vgaye.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>87.7</v>
+        <v>80.33333333333333</v>
       </c>
       <c r="N7">
-        <v>72.40000000000001</v>
+        <v>64.57777777777778</v>
       </c>
       <c r="O7">
-        <v>80.05000000000001</v>
+        <v>72.45555555555555</v>
       </c>
       <c r="P7">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>331</v>
+        <v>88</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -974,38 +974,38 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_gxm46.png</t>
+          <t>stimuli/img_xtb79.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>74.78378378378379</v>
+        <v>55.59375</v>
       </c>
       <c r="N8">
-        <v>54</v>
+        <v>31.40625</v>
       </c>
       <c r="O8">
-        <v>64.3918918918919</v>
+        <v>43.5</v>
       </c>
       <c r="P8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>332</v>
+        <v>89</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1036,53 +1036,53 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_jr212.png</t>
+          <t>stimuli/img_x4bln.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>59.48571428571429</v>
+        <v>76.34042553191489</v>
       </c>
       <c r="N9">
-        <v>39.08571428571429</v>
+        <v>59.51063829787234</v>
       </c>
       <c r="O9">
-        <v>49.28571428571429</v>
+        <v>67.92553191489361</v>
       </c>
       <c r="P9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>333</v>
+        <v>90</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1128,38 +1128,38 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_di6f0.png</t>
+          <t>stimuli/img_c89x3.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>94.04347826086956</v>
+        <v>72.8695652173913</v>
       </c>
       <c r="N10">
-        <v>83.34782608695652</v>
+        <v>49.65217391304348</v>
       </c>
       <c r="O10">
-        <v>88.69565217391303</v>
+        <v>61.26086956521739</v>
       </c>
       <c r="P10">
         <v>46</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>334</v>
+        <v>91</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1205,38 +1205,38 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_1r2ri.png</t>
+          <t>stimuli/img_th7xh.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>62.44117647058823</v>
+        <v>82.35897435897436</v>
       </c>
       <c r="N11">
-        <v>40.76470588235294</v>
+        <v>65.53846153846153</v>
       </c>
       <c r="O11">
-        <v>51.60294117647059</v>
+        <v>73.94871794871796</v>
       </c>
       <c r="P11">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>335</v>
+        <v>92</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1282,38 +1282,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_qgbyn.png</t>
+          <t>stimuli/img_ys3qz.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>65.08108108108108</v>
+        <v>46.79545454545455</v>
       </c>
       <c r="N12">
-        <v>40.10810810810811</v>
+        <v>31.20454545454545</v>
       </c>
       <c r="O12">
-        <v>52.5945945945946</v>
+        <v>39</v>
       </c>
       <c r="P12">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>336</v>
+        <v>93</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1344,53 +1344,53 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_gsfx4.png</t>
+          <t>stimuli/img_5jp4f.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>59.94736842105263</v>
+        <v>84.85714285714286</v>
       </c>
       <c r="N13">
-        <v>33.81578947368421</v>
+        <v>67.83333333333333</v>
       </c>
       <c r="O13">
-        <v>46.88157894736842</v>
+        <v>76.3452380952381</v>
       </c>
       <c r="P13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>337</v>
+        <v>94</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1436,38 +1436,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>85.51162790697674</v>
+        <v>70.75</v>
       </c>
       <c r="N14">
-        <v>67.86046511627907</v>
+        <v>50.375</v>
       </c>
       <c r="O14">
-        <v>76.68604651162791</v>
+        <v>60.5625</v>
       </c>
       <c r="P14">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>338</v>
+        <v>95</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,53 +1498,53 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_99exx.png</t>
+          <t>stimuli/img_uhmld.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>70.02272727272727</v>
+        <v>54.19354838709678</v>
       </c>
       <c r="N15">
-        <v>51.88636363636363</v>
+        <v>32</v>
       </c>
       <c r="O15">
-        <v>60.95454545454545</v>
+        <v>43.09677419354838</v>
       </c>
       <c r="P15">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1590,20 +1590,20 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_r10cu.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>78.52380952380952</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N16">
-        <v>56.14285714285715</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O16">
-        <v>67.33333333333333</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P16">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -1615,10 +1615,10 @@
         <v>7</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V16">
         <v>6</v>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>340</v>
+        <v>97</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_vnxft.png</t>
+          <t>stimuli/img_vgh2g.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>53.22727272727273</v>
+        <v>93.81395348837209</v>
       </c>
       <c r="N17">
-        <v>34.84090909090909</v>
+        <v>78.27906976744185</v>
       </c>
       <c r="O17">
-        <v>44.03409090909091</v>
+        <v>86.04651162790697</v>
       </c>
       <c r="P17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V17">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1711,7 +1711,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>341</v>
+        <v>98</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1744,38 +1744,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_mdh76.png</t>
+          <t>stimuli/img_z4jxm.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>37.31914893617022</v>
+        <v>88.30952380952381</v>
       </c>
       <c r="N18">
-        <v>25.12765957446809</v>
+        <v>72.64285714285714</v>
       </c>
       <c r="O18">
-        <v>31.22340425531915</v>
+        <v>80.47619047619048</v>
       </c>
       <c r="P18">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1788,7 +1788,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>342</v>
+        <v>99</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1821,38 +1821,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_91lbx.png</t>
+          <t>stimuli/img_c30d1.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>63.97058823529412</v>
+        <v>78.875</v>
       </c>
       <c r="N19">
-        <v>38.8235294117647</v>
+        <v>60.34375</v>
       </c>
       <c r="O19">
-        <v>51.39705882352941</v>
+        <v>69.609375</v>
       </c>
       <c r="P19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1865,7 +1865,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>343</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1898,38 +1898,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_hmmra.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>86.63414634146342</v>
+        <v>54.65853658536585</v>
       </c>
       <c r="N20">
-        <v>66.63414634146342</v>
+        <v>34.24390243902439</v>
       </c>
       <c r="O20">
-        <v>76.63414634146342</v>
+        <v>44.45121951219512</v>
       </c>
       <c r="P20">
         <v>41</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="V20">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>344</v>
+        <v>101</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_k0ze7.png</t>
+          <t>stimuli/img_3tnh4.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>58.82142857142857</v>
+        <v>80.43243243243244</v>
       </c>
       <c r="N21">
-        <v>37.46428571428572</v>
+        <v>58.72972972972973</v>
       </c>
       <c r="O21">
-        <v>48.14285714285714</v>
+        <v>69.58108108108108</v>
       </c>
       <c r="P21">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2019,7 +2019,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>345</v>
+        <v>102</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2052,38 +2052,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_9mcah.png</t>
+          <t>stimuli/img_gztbt.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>59.59375</v>
+        <v>55.06451612903226</v>
       </c>
       <c r="N22">
-        <v>36.75</v>
+        <v>26.09677419354839</v>
       </c>
       <c r="O22">
-        <v>48.171875</v>
+        <v>40.58064516129032</v>
       </c>
       <c r="P22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>346</v>
+        <v>103</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2114,35 +2114,35 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_3ze38.png</t>
+          <t>stimuli/img_swcci.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>35.53191489361702</v>
+        <v>49.82926829268293</v>
       </c>
       <c r="N23">
-        <v>28.4468085106383</v>
+        <v>28.46341463414634</v>
       </c>
       <c r="O23">
-        <v>31.98936170212766</v>
+        <v>39.14634146341464</v>
       </c>
       <c r="P23">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -2154,13 +2154,13 @@
         <v>2</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U23">
         <v>2</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2173,7 +2173,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>347</v>
+        <v>104</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2191,53 +2191,53 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_2b8fp.png</t>
+          <t>stimuli/img_wbws6.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>73.89189189189189</v>
+        <v>57.97777777777777</v>
       </c>
       <c r="N24">
-        <v>51.45945945945946</v>
+        <v>42.53333333333333</v>
       </c>
       <c r="O24">
-        <v>62.67567567567568</v>
+        <v>50.25555555555555</v>
       </c>
       <c r="P24">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V24">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>348</v>
+        <v>105</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_xbtev.png</t>
+          <t>stimuli/img_7wquy.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>13.68181818181818</v>
+        <v>50.59375</v>
       </c>
       <c r="N25">
-        <v>8.568181818181818</v>
+        <v>30.59375</v>
       </c>
       <c r="O25">
-        <v>11.125</v>
+        <v>40.59375</v>
       </c>
       <c r="P25">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>349</v>
+        <v>106</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2345,53 +2345,53 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_1r08n.png</t>
+          <t>stimuli/img_pjfx6.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>72.34285714285714</v>
+        <v>32.23404255319149</v>
       </c>
       <c r="N26">
-        <v>49</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="O26">
-        <v>60.67142857142857</v>
+        <v>29.41489361702127</v>
       </c>
       <c r="P26">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2437,38 +2437,38 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_2dnfy.png</t>
+          <t>stimuli/img_ymgcb.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>59.97297297297298</v>
+        <v>83.73684210526316</v>
       </c>
       <c r="N27">
-        <v>37.56756756756756</v>
+        <v>61.13157894736842</v>
       </c>
       <c r="O27">
-        <v>48.77027027027027</v>
+        <v>72.43421052631579</v>
       </c>
       <c r="P27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V27">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2514,38 +2514,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_tn8ys.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>62.30232558139535</v>
+        <v>86.70454545454545</v>
       </c>
       <c r="N28">
-        <v>39.97674418604651</v>
+        <v>72.40909090909091</v>
       </c>
       <c r="O28">
-        <v>51.13953488372093</v>
+        <v>79.55681818181819</v>
       </c>
       <c r="P28">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V28">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2558,7 +2558,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2567,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_bg264.png</t>
+          <t>stimuli/img_gv750.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>87.9047619047619</v>
+        <v>83.51428571428572</v>
       </c>
       <c r="N29">
-        <v>71.5</v>
+        <v>61.88571428571429</v>
       </c>
       <c r="O29">
-        <v>79.70238095238095</v>
+        <v>72.7</v>
       </c>
       <c r="P29">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2668,32 +2668,32 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_9684y.png</t>
+          <t>stimuli/img_16kib.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>77.95744680851064</v>
+        <v>80.97727272727273</v>
       </c>
       <c r="N30">
-        <v>56.70212765957447</v>
+        <v>61.11363636363637</v>
       </c>
       <c r="O30">
-        <v>67.32978723404256</v>
+        <v>71.04545454545455</v>
       </c>
       <c r="P30">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q30">
+        <v>8</v>
+      </c>
+      <c r="R30">
+        <v>8</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30">
         <v>7</v>
-      </c>
-      <c r="R30">
-        <v>7</v>
-      </c>
-      <c r="S30">
-        <v>7</v>
-      </c>
-      <c r="T30">
-        <v>6</v>
       </c>
       <c r="U30">
         <v>7</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2745,38 +2745,38 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_tujn3.png</t>
+          <t>stimuli/img_q9lab.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>81.40909090909091</v>
+        <v>53.97560975609756</v>
       </c>
       <c r="N31">
-        <v>62.52272727272727</v>
+        <v>32.90243902439025</v>
       </c>
       <c r="O31">
-        <v>71.96590909090909</v>
+        <v>43.4390243902439</v>
       </c>
       <c r="P31">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S31">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>355</v>
+        <v>112</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2822,38 +2822,38 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_3gm8h.png</t>
+          <t>stimuli/img_463mq.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>65.07894736842105</v>
+        <v>51.35294117647059</v>
       </c>
       <c r="N32">
-        <v>43.92105263157895</v>
+        <v>30.20588235294118</v>
       </c>
       <c r="O32">
-        <v>54.5</v>
+        <v>40.77941176470588</v>
       </c>
       <c r="P32">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2899,38 +2899,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_gka64.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>81.73809523809524</v>
+        <v>19.23809523809524</v>
       </c>
       <c r="N33">
-        <v>62.73809523809524</v>
+        <v>20.02380952380953</v>
       </c>
       <c r="O33">
-        <v>72.23809523809524</v>
+        <v>19.63095238095238</v>
       </c>
       <c r="P33">
         <v>42</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2943,7 +2943,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2952,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>357</v>
+        <v>114</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2961,53 +2961,53 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_sx68r.png</t>
+          <t>stimuli/img_md6k3.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>54</v>
+        <v>81.57142857142857</v>
       </c>
       <c r="N34">
-        <v>33.2051282051282</v>
+        <v>63.66666666666666</v>
       </c>
       <c r="O34">
-        <v>43.6025641025641</v>
+        <v>72.61904761904762</v>
       </c>
       <c r="P34">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V34">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3053,38 +3053,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_ds88w.png</t>
+          <t>stimuli/img_awuev.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>61.425</v>
+        <v>44.21052631578947</v>
       </c>
       <c r="N35">
-        <v>38.2</v>
+        <v>24.26315789473684</v>
       </c>
       <c r="O35">
-        <v>49.8125</v>
+        <v>34.23684210526316</v>
       </c>
       <c r="P35">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3106,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>359</v>
+        <v>116</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3130,38 +3130,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_49h18.png</t>
+          <t>stimuli/img_b2jli.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>59.28947368421053</v>
+        <v>83.15625</v>
       </c>
       <c r="N36">
-        <v>32.8421052631579</v>
+        <v>63.8125</v>
       </c>
       <c r="O36">
-        <v>46.06578947368421</v>
+        <v>73.484375</v>
       </c>
       <c r="P36">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Q36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V36">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -3174,7 +3174,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>360</v>
+        <v>117</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3207,20 +3207,20 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_njhlh.png</t>
+          <t>stimuli/img_6a0hu.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>59.74418604651163</v>
+        <v>61.275</v>
       </c>
       <c r="N37">
-        <v>41.51162790697674</v>
+        <v>42.025</v>
       </c>
       <c r="O37">
-        <v>50.62790697674419</v>
+        <v>51.65</v>
       </c>
       <c r="P37">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q37">
         <v>4</v>
@@ -3232,13 +3232,13 @@
         <v>4</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U37">
         <v>4</v>
       </c>
       <c r="V37">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>361</v>
+        <v>118</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3284,38 +3284,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_ccn2w.png</t>
+          <t>stimuli/img_uegbb.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>65.78723404255319</v>
+        <v>78.80952380952381</v>
       </c>
       <c r="N38">
-        <v>40.31914893617022</v>
+        <v>61.52380952380953</v>
       </c>
       <c r="O38">
-        <v>53.05319148936171</v>
+        <v>70.16666666666667</v>
       </c>
       <c r="P38">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U38">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V38">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>362</v>
+        <v>119</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3361,38 +3361,38 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_6wne4.png</t>
+          <t>stimuli/img_j856a.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>25.16279069767442</v>
+        <v>38.225</v>
       </c>
       <c r="N39">
-        <v>15</v>
+        <v>25.875</v>
       </c>
       <c r="O39">
-        <v>20.08139534883721</v>
+        <v>32.05</v>
       </c>
       <c r="P39">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3405,7 +3405,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3414,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>363</v>
+        <v>120</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3438,38 +3438,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_mdpr4.png</t>
+          <t>stimuli/img_ub9nn.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>74.04255319148936</v>
+        <v>78.77142857142857</v>
       </c>
       <c r="N40">
-        <v>54.70212765957447</v>
+        <v>60.37142857142857</v>
       </c>
       <c r="O40">
-        <v>64.37234042553192</v>
+        <v>69.57142857142857</v>
       </c>
       <c r="P40">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="Q40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V40">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>364</v>
+        <v>121</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3515,38 +3515,38 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_tv8e2.png</t>
+          <t>stimuli/img_b21d7.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>71.93023255813954</v>
+        <v>27.75555555555556</v>
       </c>
       <c r="N41">
-        <v>50.25581395348837</v>
+        <v>13.86666666666667</v>
       </c>
       <c r="O41">
-        <v>61.09302325581395</v>
+        <v>20.81111111111111</v>
       </c>
       <c r="P41">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
